--- a/biology/Botanique/Rantapuisto_(Kouvola)/Rantapuisto_(Kouvola).xlsx
+++ b/biology/Botanique/Rantapuisto_(Kouvola)/Rantapuisto_(Kouvola).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le parc de la rive (finnois : Kuusankosken Rantapuisto) est un parc situé près du centre de Kuusankoski à Kouvola en Finlande[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le parc de la rive (finnois : Kuusankosken Rantapuisto) est un parc situé près du centre de Kuusankoski à Kouvola en Finlande.
 </t>
         </is>
       </c>
@@ -511,13 +523,15 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc est situé sur les rives du fleuve Kymijoki de part et d'autre du pont Kuusaansilta à proximité des services du centre-ville de Kuusankoski. 
-Les larges pelouses s'étendent derrière le centre culturel de Kuusankoski et la bibliothèque de Kuusankoski[1].
+Les larges pelouses s'étendent derrière le centre culturel de Kuusankoski et la bibliothèque de Kuusankoski.
 Des travaux d'aménagement du parc seront réalisés de 2022 à 2024. 
 La partie de parc d'environ 10 hectares du côté ouest du pont Kuusaansilta sera un lieu de rencontre et de jeux.
-La partie orientale du parc sera plus bâtie et la partie ouest plus naturelle[1],[2]
+La partie orientale du parc sera plus bâtie et la partie ouest plus naturelle,
 </t>
         </is>
       </c>
